--- a/Список задач по алгоритмизации.xlsx
+++ b/Список задач по алгоритмизации.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>ЛАБА</t>
   </si>
@@ -90,13 +90,274 @@
   </si>
   <si>
     <t>**Группа выходит с восходом, остановка в том пункте, после которого они не могут дойти до следующего до захода солнца</t>
+  </si>
+  <si>
+    <t xml:space="preserve">кажется сдал </t>
+  </si>
+  <si>
+    <t>сделал выложил не сдал</t>
+  </si>
+  <si>
+    <t>надо сделать/выложить</t>
+  </si>
+  <si>
+    <t>сделал и сдал</t>
+  </si>
+  <si>
+    <t>1 количество элементов, значения которых меньше соседей</t>
+  </si>
+  <si>
+    <t>Для н вводимых чисел определить:</t>
+  </si>
+  <si>
+    <t>2 количество смен знаков последовательности</t>
+  </si>
+  <si>
+    <t>3 максимальную длину подпоследовательности</t>
+  </si>
+  <si>
+    <t>4 минимальную длину подпоследовательности, состоящей из отрицательных чисел</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дано н пар элементов </t>
+  </si>
+  <si>
+    <t>из каждой необходимо взять ровно один элемент</t>
+  </si>
+  <si>
+    <t>определить наибольшую сумму выбранных элементов, кратную трем</t>
+  </si>
+  <si>
+    <t>если нет такой, то выдать соответствующее сообщение</t>
+  </si>
+  <si>
+    <t>Для н вводимых элементов определить:</t>
+  </si>
+  <si>
+    <t>1 все ли элементы кратны своему номеру</t>
+  </si>
+  <si>
+    <t>2 положение первого четного элемента</t>
+  </si>
+  <si>
+    <t>3 положение последнего нулевого</t>
+  </si>
+  <si>
+    <t>4 количество элементов кратных минимальному ненулевому</t>
+  </si>
+  <si>
+    <t>5 образуют ли элементы массива убывающую последовательность с единственными минимальным и максимальным значениями</t>
+  </si>
+  <si>
+    <t>кажется тут должны быть грядки</t>
+  </si>
+  <si>
+    <t>есть колодец, на расстоянии L от него ряд из К грядок</t>
+  </si>
+  <si>
+    <t>грядки представляют собой прямоугольники N на M единиц</t>
+  </si>
+  <si>
+    <t>грядочник? Должен полить все грядки</t>
+  </si>
+  <si>
+    <t>схема полива:</t>
+  </si>
+  <si>
+    <t>начиная с колодца, идет до первой грядки(допустим в ближайший угол грядки пришел)</t>
+  </si>
+  <si>
+    <t>затем он обходит грядку по кругу(прямоугольнику) и идет до колодца</t>
+  </si>
+  <si>
+    <t>чтобы полить вторую, он также начиная с колодца идет до ближнего угла второй грядки(расстояние равно L + M) и обходит ее по кругу, возвращаясь после этого к колодцу</t>
+  </si>
+  <si>
+    <t>и так все К грядок</t>
+  </si>
+  <si>
+    <t>сколько единиц он пройдет?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">тестовые данные </t>
+  </si>
+  <si>
+    <t>м 10</t>
+  </si>
+  <si>
+    <t>н 5</t>
+  </si>
+  <si>
+    <t>L 7</t>
+  </si>
+  <si>
+    <t>К 1 2 3 20</t>
+  </si>
+  <si>
+    <t>ответы для разных К 44 108 192 4680</t>
+  </si>
+  <si>
+    <t>определить количество элементов четных между макс и мин</t>
+  </si>
+  <si>
+    <t>все ли элементы, стоящие на четных местах имеют в своей записи хотя бы одну пятерку</t>
+  </si>
+  <si>
+    <t>заменить все нечетные элементы массива на сумму цифр этих чисел</t>
+  </si>
+  <si>
+    <t>определить количество элементов, значение которых больше среднего арифметического нечетных элементов массива</t>
+  </si>
+  <si>
+    <t>имеется ли в массиве хотя бы один отрицательный элемент, оканчивающийся на 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">практика </t>
+  </si>
+  <si>
+    <t>Дано n мышей, из них одна белая. Необходимо определить с какой мыши следует съедать коту кажду k-ю мышь, чтобы в конце осталась белая. Положение белой мыши задаётся пользователем</t>
+  </si>
+  <si>
+    <t>Дан массив в котором элементы строк это множества целых не отрицательных чисел в разном количестве. Необходимо сформировать одномерные массивы, которые содержат:</t>
+  </si>
+  <si>
+    <t>1. Элементы пересечения множеств</t>
+  </si>
+  <si>
+    <t>2. Элементы объединения множеств</t>
+  </si>
+  <si>
+    <t>3. Массив из максимальных элементов множеств</t>
+  </si>
+  <si>
+    <t>Имеется ряд городов, количество городов k, имеются расстояния между городами</t>
+  </si>
+  <si>
+    <t> P определяет расстояние ближе к которого нельзя располагать заправку к городу,</t>
+  </si>
+  <si>
+    <t>определить положение заправки таким образом чтобы суммарное расстояние от каждого города до заправки было минимальным</t>
+  </si>
+  <si>
+    <t>на вход подается строка, необходимо определить сумм четных цифр в строке и определить, является ли строка палиндромом</t>
+  </si>
+  <si>
+    <t>(причем строка, к примеру, "А роза упала на лапу Азора" будет палиндромом несмотря на большие буквы и пробелы)</t>
+  </si>
+  <si>
+    <t>В массиве размерность н на м определить количество строк в которыз минимальный и максимальный элементы четные</t>
+  </si>
+  <si>
+    <t>Ввод данных в массив, нахождение минимального и максимального с помощью своих функций</t>
+  </si>
+  <si>
+    <t>должно было быть но заменили на цифровую грамотность</t>
+  </si>
+  <si>
+    <t>Класс в блоке мейн, не отдельный файл,</t>
+  </si>
+  <si>
+    <t>Необходимо создать класс студент</t>
+  </si>
+  <si>
+    <t>Имя класса любое</t>
+  </si>
+  <si>
+    <t>Со следующими характеристиками:</t>
+  </si>
+  <si>
+    <t>ФИО</t>
+  </si>
+  <si>
+    <t>Год рождения</t>
+  </si>
+  <si>
+    <t>Группа</t>
+  </si>
+  <si>
+    <t>Реализовать:</t>
+  </si>
+  <si>
+    <t>Конструктор, с инициализ станд значений, свойства для взятия, присвоения , реализация методов:</t>
+  </si>
+  <si>
+    <t>Выборка студентов по году рождения и по группе.</t>
+  </si>
+  <si>
+    <t>Мейн:</t>
+  </si>
+  <si>
+    <t>Массив студентов или массив экземпляров класса , в котором работаем</t>
+  </si>
+  <si>
+    <t>Статик, без разницы</t>
+  </si>
+  <si>
+    <t>Перед мейном класс, объект в мейне</t>
+  </si>
+  <si>
+    <t>Класс Машины содержит след характеристики</t>
+  </si>
+  <si>
+    <t>наименование машины</t>
+  </si>
+  <si>
+    <t>год выпуска</t>
+  </si>
+  <si>
+    <t>цвет</t>
+  </si>
+  <si>
+    <t>массив владельцев машины</t>
+  </si>
+  <si>
+    <t>массив дат прохождения тех осмотров</t>
+  </si>
+  <si>
+    <t>Осуществить выборку всех машин, произведенных в заданный год,</t>
+  </si>
+  <si>
+    <t>выборку всех машины, прошедших тех. Осмотр в заданный го</t>
+  </si>
+  <si>
+    <t>выборку последних владельцев каждой машины</t>
+  </si>
+  <si>
+    <t>Класс-родитель Машины, поля: номер авто, имена, год выпуска, массив техосмотр.</t>
+  </si>
+  <si>
+    <t>Классы-Наследники:</t>
+  </si>
+  <si>
+    <t>1-легковое авто</t>
+  </si>
+  <si>
+    <t>Тип кузова и мощность двигателя</t>
+  </si>
+  <si>
+    <t>2-грузовое авто, поля:</t>
+  </si>
+  <si>
+    <t>Грузоподъемность</t>
+  </si>
+  <si>
+    <t>Выборки:</t>
+  </si>
+  <si>
+    <t>1 - выдать все машины с заданным типом кузова</t>
+  </si>
+  <si>
+    <t>2 -определить наилучший способ доставки груза(количество машин требуемых для перевозки), заданного веса</t>
+  </si>
+  <si>
+    <t>3 - по номеру авто определить грузовая или легковая</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,8 +366,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -137,6 +405,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -150,7 +448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -162,6 +460,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -464,17 +771,19 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.7109375" style="1"/>
     <col min="2" max="3" width="5.7109375" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="20.7109375" style="2"/>
+    <col min="4" max="4" width="20.7109375" style="2"/>
+    <col min="5" max="5" width="25" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="20.7109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -491,7 +800,7 @@
       <c r="A2" s="3">
         <v>45181</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="12">
         <v>1</v>
       </c>
       <c r="C2" s="4"/>
@@ -506,10 +815,10 @@
       <c r="A3" s="3">
         <v>45182</v>
       </c>
-      <c r="B3" s="7">
-        <v>1</v>
-      </c>
-      <c r="C3" s="7">
+      <c r="B3" s="12">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12">
         <v>1</v>
       </c>
       <c r="D3" s="4"/>
@@ -549,7 +858,7 @@
       <c r="A6" s="3">
         <v>45209</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="5">
         <v>1</v>
       </c>
       <c r="C6" s="4"/>
@@ -558,7 +867,7 @@
       <c r="A7" s="3">
         <v>45210</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="11">
         <v>1</v>
       </c>
       <c r="C7" s="7">
@@ -580,7 +889,7 @@
       <c r="A9" s="3">
         <v>45237</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="18">
         <v>1</v>
       </c>
       <c r="C9" s="4"/>
@@ -592,8 +901,8 @@
       <c r="B10" s="5">
         <v>1</v>
       </c>
-      <c r="C10" s="7">
-        <v>1</v>
+      <c r="C10" s="19" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -614,16 +923,22 @@
       <c r="B12" s="5">
         <v>1</v>
       </c>
+      <c r="E12" s="13" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>45266</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="5">
         <v>1</v>
       </c>
       <c r="C13" s="8">
         <v>1</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -636,6 +951,20 @@
       <c r="C14" s="10">
         <v>1</v>
       </c>
+      <c r="E14" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="E15" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="3"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -645,15 +974,22 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1">
-        <v>1</v>
+      <c r="A1" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="17" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -663,38 +999,210 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -826,12 +1334,98 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="84.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -850,62 +1444,240 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="39" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A2:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="175.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="180.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Список задач по алгоритмизации.xlsx
+++ b/Список задач по алгоритмизации.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" tabRatio="785"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" tabRatio="785" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="12.09" sheetId="4" r:id="rId2"/>
-    <sheet name="13.09" sheetId="5" r:id="rId3"/>
-    <sheet name="25.09" sheetId="6" r:id="rId4"/>
+    <sheet name="12.09" sheetId="4" state="hidden" r:id="rId2"/>
+    <sheet name="13.09" sheetId="5" state="hidden" r:id="rId3"/>
+    <sheet name="25.09" sheetId="6" state="hidden" r:id="rId4"/>
     <sheet name="27,09" sheetId="7" r:id="rId5"/>
     <sheet name="10,10" sheetId="8" r:id="rId6"/>
     <sheet name="11,10" sheetId="9" r:id="rId7"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="121">
   <si>
     <t>ЛАБА</t>
   </si>
@@ -215,9 +215,6 @@
     <t xml:space="preserve">практика </t>
   </si>
   <si>
-    <t>Дано n мышей, из них одна белая. Необходимо определить с какой мыши следует съедать коту кажду k-ю мышь, чтобы в конце осталась белая. Положение белой мыши задаётся пользователем</t>
-  </si>
-  <si>
     <t>Дан массив в котором элементы строк это множества целых не отрицательных чисел в разном количестве. Необходимо сформировать одномерные массивы, которые содержат:</t>
   </si>
   <si>
@@ -351,6 +348,48 @@
   </si>
   <si>
     <t>3 - по номеру авто определить грузовая или легковая</t>
+  </si>
+  <si>
+    <t>Дано N мышей, из них одна - белая, остальные черные. Необходимо определить с какой мышки следует съедать коту каждую k-тую так, чтобы в конце осталась белая мышь.</t>
+  </si>
+  <si>
+    <t>Мыши находятся в массиве, сидят по кругу, положение белой - задано пользователем.</t>
+  </si>
+  <si>
+    <t>Ввод: Общее количество мышей, положение белой и число k</t>
+  </si>
+  <si>
+    <t>Ввод:</t>
+  </si>
+  <si>
+    <t>N - кол-во серых мышей</t>
+  </si>
+  <si>
+    <t>M - количество белых мышей</t>
+  </si>
+  <si>
+    <t>По кругу рассажены</t>
+  </si>
+  <si>
+    <t>Какую мышь съедает</t>
+  </si>
+  <si>
+    <t>N1 - конечное кол-во серых мышей</t>
+  </si>
+  <si>
+    <t>M1 - конечное количество белых мышей</t>
+  </si>
+  <si>
+    <t>Определить положение мышей, чтобы при выходе с позиции серой мышки при съедании k-той с входными данными получались выходные</t>
+  </si>
+  <si>
+    <t>вроде ничего</t>
+  </si>
+  <si>
+    <t>На вводе создается ступенчатый массив</t>
+  </si>
+  <si>
+    <t>что-то про горы и дороги</t>
   </si>
 </sst>
 </file>
@@ -374,7 +413,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -435,6 +474,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -457,7 +502,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
@@ -469,6 +513,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -773,8 +818,8 @@
   </sheetPr>
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15"/>
@@ -800,7 +845,7 @@
       <c r="A2" s="3">
         <v>45181</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="11">
         <v>1</v>
       </c>
       <c r="C2" s="4"/>
@@ -815,11 +860,11 @@
       <c r="A3" s="3">
         <v>45182</v>
       </c>
-      <c r="B3" s="12">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12">
-        <v>1</v>
+      <c r="B3" s="11">
+        <v>1</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>118</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -833,8 +878,8 @@
         <v>45194</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="7">
-        <v>1</v>
+      <c r="C4" s="18" t="s">
+        <v>118</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -867,7 +912,7 @@
       <c r="A7" s="3">
         <v>45210</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <v>1</v>
       </c>
       <c r="C7" s="7">
@@ -889,7 +934,7 @@
       <c r="A9" s="3">
         <v>45237</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="17">
         <v>1</v>
       </c>
       <c r="C9" s="4"/>
@@ -901,8 +946,8 @@
       <c r="B10" s="5">
         <v>1</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>74</v>
+      <c r="C10" s="18" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -923,7 +968,7 @@
       <c r="B12" s="5">
         <v>1</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -934,10 +979,10 @@
       <c r="B13" s="5">
         <v>1</v>
       </c>
-      <c r="C13" s="8">
-        <v>1</v>
-      </c>
-      <c r="E13" s="15" t="s">
+      <c r="C13" s="19">
+        <v>1</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>22</v>
       </c>
     </row>
@@ -948,15 +993,15 @@
       <c r="B14" s="5">
         <v>1</v>
       </c>
-      <c r="C14" s="10">
-        <v>1</v>
-      </c>
-      <c r="E14" s="14" t="s">
+      <c r="C14" s="9">
+        <v>1</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="15" t="s">
         <v>24</v>
       </c>
     </row>
@@ -983,13 +1028,13 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="16" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="17" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -999,82 +1044,125 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="103" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="16" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="17" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="16" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="17" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="16" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="17" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="16" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="17" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="16" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="17" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="16" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="17" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="16" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="17" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="16" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="17" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="16" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="17" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="16" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="17" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" s="16" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="17" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="16" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="17" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="16" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="17" t="s">
-        <v>88</v>
+    <row r="17" spans="1:1">
+      <c r="A17" s="16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="16" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1094,47 +1182,47 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1144,62 +1232,67 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="16" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="17" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="16" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="17" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="16" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="17" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="16" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="17" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="16" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="17" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="16" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="17" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="16" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="17" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="16" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="17" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="16" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="17" t="s">
-        <v>107</v>
+    <row r="12" spans="1:1">
+      <c r="A12" s="16" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1221,97 +1314,97 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:2">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:2">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="2:2">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1336,9 +1429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1552,10 +1643,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:A11"/>
+  <dimension ref="A2:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1594,8 +1685,18 @@
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="17" t="s">
-        <v>62</v>
+      <c r="A11" s="16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1609,7 +1710,7 @@
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1618,38 +1719,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="16" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="17" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="16" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="17" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="17" t="s">
-        <v>66</v>
+    <row r="5" spans="1:1">
+      <c r="A5" s="16" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="16" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="17" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" s="16" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="17" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1668,13 +1774,13 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="16" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="17" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
